--- a/data/2009_data.xlsx
+++ b/data/2009_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_8D7EFEC5CDD968D888160BBE23DED46F502F40AE" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E8E3E8C5-8332-4AAB-B4AB-C211F23F53A6}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="273">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,529 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Poker Face</t>
   </si>
   <si>
+    <t>Just Dance</t>
+  </si>
+  <si>
+    <t>I Gotta Feeling</t>
+  </si>
+  <si>
+    <t>Love Story</t>
+  </si>
+  <si>
+    <t>Right Round</t>
+  </si>
+  <si>
+    <t>I'm Yours</t>
+  </si>
+  <si>
+    <t>Single Ladies (Put A Ring On It)</t>
+  </si>
+  <si>
+    <t>Heartless</t>
+  </si>
+  <si>
+    <t>Gives You Hell</t>
+  </si>
+  <si>
+    <t>You Belong With Me</t>
+  </si>
+  <si>
+    <t>Dead And Gone</t>
+  </si>
+  <si>
+    <t>You Found Me</t>
+  </si>
+  <si>
+    <t>Use Somebody</t>
+  </si>
+  <si>
+    <t>Knock You Down</t>
+  </si>
+  <si>
+    <t>Blame It</t>
+  </si>
+  <si>
+    <t>I Know You Want Me (Calle Ocho)</t>
+  </si>
+  <si>
+    <t>Live Your Life</t>
+  </si>
+  <si>
+    <t>Kiss Me Thru The Phone</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>The Climb</t>
+  </si>
+  <si>
+    <t>Best I Ever Had</t>
+  </si>
+  <si>
+    <t>My Life Would Suck Without You</t>
+  </si>
+  <si>
+    <t>Halo</t>
+  </si>
+  <si>
+    <t>Hot N Cold</t>
+  </si>
+  <si>
+    <t>Second Chance</t>
+  </si>
+  <si>
+    <t>Circus</t>
+  </si>
+  <si>
+    <t>Day 'N' Nite</t>
+  </si>
+  <si>
+    <t>Party In The U.S.A.</t>
+  </si>
+  <si>
+    <t>Don't Trust Me</t>
+  </si>
+  <si>
+    <t>Run This Town</t>
+  </si>
+  <si>
+    <t>Let It Rock</t>
+  </si>
+  <si>
+    <t>Fire Burning</t>
+  </si>
+  <si>
+    <t>Whatcha Say</t>
+  </si>
+  <si>
+    <t>LoveGame</t>
+  </si>
+  <si>
+    <t>Waking Up In Vegas</t>
+  </si>
+  <si>
+    <t>Birthday Sex</t>
+  </si>
+  <si>
+    <t>Sober</t>
+  </si>
+  <si>
+    <t>Womanizer</t>
+  </si>
+  <si>
+    <t>Whatever You Like</t>
+  </si>
+  <si>
+    <t>Obsessed</t>
+  </si>
+  <si>
+    <t>Mad</t>
+  </si>
+  <si>
+    <t>Good Girls Go Bad</t>
+  </si>
+  <si>
+    <t>Love Lockdown</t>
+  </si>
+  <si>
+    <t>So What</t>
+  </si>
+  <si>
+    <t>Hotel Room Service</t>
+  </si>
+  <si>
+    <t>Crack A Bottle</t>
+  </si>
+  <si>
+    <t>If I Were A Boy</t>
+  </si>
+  <si>
+    <t>Turnin Me On</t>
+  </si>
+  <si>
+    <t>I Hate This Part</t>
+  </si>
+  <si>
+    <t>Gotta Be Somebody</t>
+  </si>
+  <si>
+    <t>Please Don't Leave Me</t>
+  </si>
+  <si>
+    <t>Paparazzi</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>Viva La Vida</t>
+  </si>
+  <si>
+    <t>Right Now (Na Na Na)</t>
+  </si>
+  <si>
+    <t>Battlefield</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Miss Independent</t>
+  </si>
+  <si>
+    <t>Fireflies</t>
+  </si>
+  <si>
+    <t>New Divide</t>
+  </si>
+  <si>
+    <t>Empire State Of Mind</t>
+  </si>
+  <si>
+    <t>No Surprise</t>
+  </si>
+  <si>
+    <t>She Wolf</t>
+  </si>
+  <si>
+    <t>Break Up</t>
+  </si>
+  <si>
+    <t>Sweet Dreams</t>
+  </si>
+  <si>
+    <t>Every Girl</t>
+  </si>
+  <si>
+    <t>Fallin' For You</t>
+  </si>
+  <si>
+    <t>Untouched</t>
+  </si>
+  <si>
+    <t>If Today Was Your Last Day</t>
+  </si>
+  <si>
+    <t>Throw It In The Bag</t>
+  </si>
+  <si>
+    <t>Love Drunk</t>
+  </si>
+  <si>
+    <t>I Love College</t>
+  </si>
+  <si>
+    <t>If U Seek Amy</t>
+  </si>
+  <si>
+    <t>Big Green Tractor</t>
+  </si>
+  <si>
+    <t>White Horse</t>
+  </si>
+  <si>
+    <t>Disturbia</t>
+  </si>
+  <si>
+    <t>21 Guns</t>
+  </si>
+  <si>
+    <t>Turn My Swag On</t>
+  </si>
+  <si>
+    <t>Rockin' That Thang</t>
+  </si>
+  <si>
+    <t>Chicken Fried</t>
+  </si>
+  <si>
+    <t>Diva</t>
+  </si>
+  <si>
+    <t>Replay</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>Her Diamonds</t>
+  </si>
+  <si>
+    <t>How Do You Sleep?</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Forever</t>
+  </si>
+  <si>
+    <t>One Time</t>
+  </si>
+  <si>
+    <t>I Run To You</t>
+  </si>
+  <si>
+    <t>I Do Not Hook Up</t>
+  </si>
+  <si>
+    <t>Green Light</t>
+  </si>
+  <si>
+    <t>People Are Crazy</t>
+  </si>
+  <si>
+    <t>Whatever It Is</t>
+  </si>
+  <si>
+    <t>Already Gone</t>
+  </si>
+  <si>
+    <t>Goodbye</t>
+  </si>
+  <si>
+    <t>Say Hey (I Love You)</t>
+  </si>
+  <si>
+    <t>Pop Champagne</t>
+  </si>
+  <si>
+    <t>Pretty Wings</t>
+  </si>
+  <si>
+    <t>Never Say Never</t>
+  </si>
+  <si>
     <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Lady Gaga Featuring Colby O'Donis</t>
+  </si>
+  <si>
+    <t>The Black Eyed Peas</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>The All-American Rejects</t>
+  </si>
+  <si>
+    <t>T.I. Featuring Justin Timberlake</t>
+  </si>
+  <si>
+    <t>The Fray</t>
+  </si>
+  <si>
+    <t>Kings Of Leon</t>
+  </si>
+  <si>
+    <t>Keri Hilson Featuring Kanye West &amp; Ne-Yo</t>
+  </si>
+  <si>
+    <t>Jamie Foxx Featuring T-Pain</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>T.I. Featuring Rihanna</t>
+  </si>
+  <si>
+    <t>Soulja Boy Tell 'em Featuring Sammie</t>
+  </si>
+  <si>
+    <t>Jay Sean Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Shinedown</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>Kid Cudi</t>
+  </si>
+  <si>
+    <t>3OH!3</t>
+  </si>
+  <si>
+    <t>Jay-Z, Rihanna &amp; Kanye West</t>
+  </si>
+  <si>
+    <t>Kevin Rudolf Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>Sean Kingston</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Jeremih</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>T.I.</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>Ne-Yo</t>
+  </si>
+  <si>
+    <t>Cobra Starship Featuring Leighton Meester</t>
+  </si>
+  <si>
+    <t>Eminem, Dr. Dre &amp; 50 Cent</t>
+  </si>
+  <si>
+    <t>Keri Hilson Featuring Lil Wayne</t>
+  </si>
+  <si>
+    <t>The Pussycat Dolls</t>
+  </si>
+  <si>
+    <t>Nickelback</t>
+  </si>
+  <si>
+    <t>Akon Featuring Colby O'Donis &amp; Kardinal Offishall</t>
+  </si>
+  <si>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Jordin Sparks</t>
+  </si>
+  <si>
+    <t>Flo Rida Featuring Wynter</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Jay-Z + Alicia Keys</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>Shakira</t>
+  </si>
+  <si>
+    <t>Mario Featuring Gucci Mane &amp; Sean Garrett</t>
+  </si>
+  <si>
+    <t>Young Money</t>
+  </si>
+  <si>
+    <t>Colbie Caillat</t>
+  </si>
+  <si>
+    <t>The Veronicas</t>
+  </si>
+  <si>
+    <t>Fabolous Featuring The-Dream</t>
+  </si>
+  <si>
+    <t>Boys Like Girls</t>
+  </si>
+  <si>
+    <t>Asher Roth</t>
+  </si>
+  <si>
+    <t>Jason Aldean</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Green Day</t>
+  </si>
+  <si>
+    <t>Soulja Boy Tell'em</t>
+  </si>
+  <si>
+    <t>The-Dream</t>
+  </si>
+  <si>
+    <t>Zac Brown Band</t>
+  </si>
+  <si>
+    <t>Iyaz</t>
+  </si>
+  <si>
+    <t>Brad Paisley</t>
+  </si>
+  <si>
+    <t>Rob Thomas</t>
+  </si>
+  <si>
+    <t>Jesse McCartney Featuring Ludacris</t>
+  </si>
+  <si>
+    <t>Drake Featuring Kanye West, Lil Wayne &amp; Eminem</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Lady Antebellum</t>
+  </si>
+  <si>
+    <t>John Legend Featuring Andre 3000</t>
+  </si>
+  <si>
+    <t>Billy Currington</t>
+  </si>
+  <si>
+    <t>Kristinia DeBarge</t>
+  </si>
+  <si>
+    <t>Michael Franti &amp; Spearhead Featuring Cherine Anderson</t>
+  </si>
+  <si>
+    <t>Jim Jones &amp; Ron Browz Featuring Juelz Santana</t>
   </si>
   <si>
     <t>Mum mum mum mah
@@ -108,12 +633,6 @@
 Mum mum mum mah
 P-p-p-poker face, p-p-fuck her face
 Mum mum mum mah</t>
-  </si>
-  <si>
-    <t>Just Dance</t>
-  </si>
-  <si>
-    <t>Lady Gaga Featuring Colby O'Donis</t>
   </si>
   <si>
     <t>RedOne
@@ -204,12 +723,6 @@
 Just j-j-just dance</t>
   </si>
   <si>
-    <t>I Gotta Feeling</t>
-  </si>
-  <si>
-    <t>The Black Eyed Peas</t>
-  </si>
-  <si>
     <t>I gotta feeling, that tonight's gonna be a good night
 That tonight's gonna be a good night
 That tonight's gonna be a good, good nightA feeling, that tonight's gonna be a good night
@@ -273,12 +786,6 @@
 That tonight's gonna be a good, good night (Woohoo)</t>
   </si>
   <si>
-    <t>Love Story</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
     <t>We were both young when I first saw you
 I close my eyes and the flashback starts
 I'm standing there, on a balcony, in summer airSee the lights, see the party, the ball gowns
@@ -321,12 +828,6 @@
 I talked to your dad, go pick out a white dress
 It's a love story, baby, just say yes"
 'Cause we were both young when I first saw you</t>
-  </si>
-  <si>
-    <t>Right Round</t>
-  </si>
-  <si>
-    <t>Flo Rida</t>
   </si>
   <si>
     <t>You spin my head right round, right round
@@ -397,12 +898,6 @@
 When you go down, when you go down down</t>
   </si>
   <si>
-    <t>I'm Yours</t>
-  </si>
-  <si>
-    <t>Jason Mraz</t>
-  </si>
-  <si>
     <t>Well, you done done me, and you bet I felt it
 I tried to be chill, but you're so hot that I melted
 I fell right through the cracksNow I'm trying to get back
@@ -451,12 +946,6 @@
 Oh I'm Yours!
 Woah, woah, baby do believe I'm Yours
 You best believe, you best believe I'm Yours, mmhm!</t>
-  </si>
-  <si>
-    <t>Single Ladies (Put A Ring On It)</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
   </si>
   <si>
     <t>All the single ladies, all the single ladies
@@ -524,12 +1013,6 @@
 Oh, oh, oh</t>
   </si>
   <si>
-    <t>Heartless</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
     <t>In the night I hear 'em talk
 The coldest story ever told
 Somewhere far along this roadHe lost his soul to a woman so heartless
@@ -588,12 +1071,6 @@
 He lost his soul to a woman so heartless
 How could you be so heartless?
 Oh, how could you be so heartless?</t>
-  </si>
-  <si>
-    <t>Gives You Hell</t>
-  </si>
-  <si>
-    <t>The All-American Rejects</t>
   </si>
   <si>
     <t>I wake up every evening
@@ -680,9 +1157,6 @@
 I hope that it puts you through hell</t>
   </si>
   <si>
-    <t>You Belong With Me</t>
-  </si>
-  <si>
     <t>You're on the phone with your girlfriend, she's upset
 She's going off about something that you said
 'Cause she doesn't get your humor like I doI'm in the room, it's a typical Tuesday night
@@ -746,18 +1220,6 @@
 You belong with me</t>
   </si>
   <si>
-    <t>Dead And Gone</t>
-  </si>
-  <si>
-    <t>T.I. Featuring Justin Timberlake</t>
-  </si>
-  <si>
-    <t>You Found Me</t>
-  </si>
-  <si>
-    <t>The Fray</t>
-  </si>
-  <si>
     <t>I found a picture in my basement
 My face a hundred years ago
 But I don't wanna do like he didSo full of pride and all alone
@@ -809,12 +1271,6 @@
 Hold my hand, hold my hand</t>
   </si>
   <si>
-    <t>Use Somebody</t>
-  </si>
-  <si>
-    <t>Kings Of Leon</t>
-  </si>
-  <si>
     <t>I've been roaming around
 Always looking down at all I see
 Painted faces fill the places I can't reachYou know that I could use somebody
@@ -853,18 +1309,6 @@
 Somebody
 I've been roaming around
 Always looking down at all I see</t>
-  </si>
-  <si>
-    <t>Knock You Down</t>
-  </si>
-  <si>
-    <t>Keri Hilson Featuring Kanye West &amp; Ne-Yo</t>
-  </si>
-  <si>
-    <t>Blame It</t>
-  </si>
-  <si>
-    <t>Jamie Foxx Featuring T-Pain</t>
   </si>
   <si>
     <t>Blame it on the goose
@@ -1006,12 +1450,6 @@
 Blame it on the a a a a a a alcoholl</t>
   </si>
   <si>
-    <t>I Know You Want Me (Calle Ocho)</t>
-  </si>
-  <si>
-    <t>Pitbull</t>
-  </si>
-  <si>
     <t>Haha
 It's Mr. 305 checkin' in for the remix
 You know that S 75 Street Brazil?Well this year gon be called Calle Ocho
@@ -1123,12 +1561,6 @@
 Uno-dos-tres-cuatro</t>
   </si>
   <si>
-    <t>Live Your Life</t>
-  </si>
-  <si>
-    <t>T.I. Featuring Rihanna</t>
-  </si>
-  <si>
     <t>Estoy loca enamorada de ti
 It seemed to be like the perfect thing for you and meIt's so ironic you're what I had pictured you to be
 But there are facts in our lives we can never change
@@ -1203,12 +1635,6 @@
 You shouldn't feel
 Ain't it funny how a moment could just change your life
 And you don't want to face what's wrong or right</t>
-  </si>
-  <si>
-    <t>Kiss Me Thru The Phone</t>
-  </si>
-  <si>
-    <t>Soulja Boy Tell 'em Featuring Sammie</t>
   </si>
   <si>
     <t>Baby you know that I miss you
@@ -1288,12 +1714,6 @@
 See you when I get hom</t>
   </si>
   <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Jay Sean Featuring Lil Wayne</t>
-  </si>
-  <si>
     <t>Baby, are you down, down, down, down, down?
 Down, down
 Even if the sky is falling down?Down, down
@@ -1369,12 +1789,6 @@
 And the sky is falling down</t>
   </si>
   <si>
-    <t>The Climb</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
-  </si>
-  <si>
     <t>I can almost see it
 That dream I'm dreaming
 But, there's a voice inside my head sayingYou'll never reach it
@@ -1422,12 +1836,6 @@
 It's all about, it's all about the climb
 Keep your faith, keep your faith
 Whoa</t>
-  </si>
-  <si>
-    <t>Best I Ever Had</t>
-  </si>
-  <si>
-    <t>Drake</t>
   </si>
   <si>
     <t>You know alot of girls be
@@ -1560,12 +1968,6 @@
 I got you</t>
   </si>
   <si>
-    <t>My Life Would Suck Without You</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
     <t>Guess this means you're sorry
 You're standin' at my door
 Guess this means you take backAll you said before
@@ -1605,15 +2007,6 @@
 You got a piece of me
 And honestly
 My life (my life) would suck (would suck) without you</t>
-  </si>
-  <si>
-    <t>Halo</t>
-  </si>
-  <si>
-    <t>Hot N Cold</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
   </si>
   <si>
     <t>You change your mind like a girl changes clothes
@@ -1681,12 +2074,6 @@
 You're up, then you're down</t>
   </si>
   <si>
-    <t>Second Chance</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
     <t>My eyes are open wide
 By the way
 I made it through the dayI watch the world outside
@@ -1735,12 +2122,6 @@
 Sometimes goodbye is a second chance</t>
   </si>
   <si>
-    <t>Circus</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
     <t>There's only two types of people in the world:
 The ones that entertain, and the ones that observe
 Well, baby, I'm a put-on-a-show kind of girlDon't like the back seat, gotta be first
@@ -1782,12 +2163,6 @@
 When I crack that whip everybody gon' trip just like a circus
 Don't stand there watching me, follow me, show me what you can do
 Everybody let go, we can make a dance floor just like a circus</t>
-  </si>
-  <si>
-    <t>Day 'N' Nite</t>
-  </si>
-  <si>
-    <t>Kid Cudi</t>
   </si>
   <si>
     <t>Day n night. I toss and turn, I keep stressin' my mind, mind
@@ -1839,9 +2214,6 @@
 He's all alone, some things will never change
 The lonely loner seems to free his mind at night, ah ah at night
 Kid Cudi - Day 'N' Nite</t>
-  </si>
-  <si>
-    <t>Party In The U.S.A.</t>
   </si>
   <si>
     <t>I hopped off the plane at LAX
@@ -1907,18 +2279,6 @@
 They know I'm gonna be okay (I'm gonna be okay)
 Yeah, it's a party in the U.S.A.
 Yeah (ha-ha-ha-ha), it's a party in the U.S.A.</t>
-  </si>
-  <si>
-    <t>Don't Trust Me</t>
-  </si>
-  <si>
-    <t>3OH!3</t>
-  </si>
-  <si>
-    <t>Run This Town</t>
-  </si>
-  <si>
-    <t>Jay-Z, Rihanna &amp; Kanye West</t>
   </si>
   <si>
     <t>Feel it coming in the air
@@ -2022,18 +2382,6 @@
 (End)</t>
   </si>
   <si>
-    <t>Let It Rock</t>
-  </si>
-  <si>
-    <t>Kevin Rudolf Featuring Lil Wayne</t>
-  </si>
-  <si>
-    <t>Fire Burning</t>
-  </si>
-  <si>
-    <t>Sean Kingston</t>
-  </si>
-  <si>
     <t>Somebody call 9-1-1
 Shawty fire burning on the dance floor (woah)
 (Fire burning)What a guann?
@@ -2101,12 +2449,6 @@
 She's fire burning, fire burning on the dance floor
 That little shawty's fire burning on the dance floor
 Somebody call 9-1-1</t>
-  </si>
-  <si>
-    <t>Whatcha Say</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
   </si>
   <si>
     <t>Wha-wha-wha-wha-what did she say?
@@ -2195,9 +2537,6 @@
 (Beluga Heights)</t>
   </si>
   <si>
-    <t>LoveGame</t>
-  </si>
-  <si>
     <t>Let's have some fun, this beat is sick
 I wanna take a ride on your disco stick
 Let's have some fun, this beat is sickI wanna take a ride on your disco stick
@@ -2270,9 +2609,6 @@
 Dans the LoveGame</t>
   </si>
   <si>
-    <t>Waking Up In Vegas</t>
-  </si>
-  <si>
     <t>You gotta help me out
 It's all a blur last night
 We need a taxi 'cause you're hungover and I'm brokeI lost my fake ID but you lost the motel key
@@ -2314,12 +2650,6 @@
 Shake the glitter, shake, shake, shake the glitter
 Give me some cash out, baby
 Give me some cash out, baby</t>
-  </si>
-  <si>
-    <t>Birthday Sex</t>
-  </si>
-  <si>
-    <t>Jeremih</t>
   </si>
   <si>
     <t>It's your birthday, so I know you want to ride out
@@ -2398,12 +2728,6 @@
 Lemme hit that G-spot, G-spot, girl</t>
   </si>
   <si>
-    <t>Sober</t>
-  </si>
-  <si>
-    <t>P!nk</t>
-  </si>
-  <si>
     <t>I don't wanna be the girl who laughs the loudest
 Or the girl who never wants to be alone
 I don't wanna be that call at four o'clock in the mornin''Cause I'm the only one you know in the world that won't be home
@@ -2463,9 +2787,6 @@
 You're like perfection
 But how do I feel this good sober?
 (How do I feel this good sober)</t>
-  </si>
-  <si>
-    <t>Womanizer</t>
   </si>
   <si>
     <t>Superstar, where you from? How's it going?
@@ -2540,12 +2861,6 @@
 Boy, don't try to front, I-I know just, just what you are, are, are
 Womanizer, woman-womanizer, you're a womanizer
 Oh, womanizer, oh, you're a womanizer, baby</t>
-  </si>
-  <si>
-    <t>Whatever You Like</t>
-  </si>
-  <si>
-    <t>T.I.</t>
   </si>
   <si>
     <t>Hey, Jim
@@ -2630,12 +2945,6 @@
 Hey, Jim (Hey, Jim)</t>
   </si>
   <si>
-    <t>Obsessed</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
     <t>All up in the blogs
 Saying we met at the bar
 When I don't even know who you areSaying we up in your house
@@ -2698,12 +3007,6 @@
 When everybody knows
 It's clear that you're upset with me
 Oh, oh, oh</t>
-  </si>
-  <si>
-    <t>Mad</t>
-  </si>
-  <si>
-    <t>Ne-Yo</t>
   </si>
   <si>
     <t>Woah, ohh
@@ -2792,15 +3095,6 @@
 (Mad at me) oh no, no, no</t>
   </si>
   <si>
-    <t>Good Girls Go Bad</t>
-  </si>
-  <si>
-    <t>Cobra Starship Featuring Leighton Meester</t>
-  </si>
-  <si>
-    <t>Love Lockdown</t>
-  </si>
-  <si>
     <t>I'm not loving you, the way I wanted to
 What I had to do, had to run from you
 I'm in love with you but the vibe is wrongAnd that haunted me, all the way home
@@ -2862,9 +3156,6 @@
 You lose, you lose
 You lose, you lose
 You lose</t>
-  </si>
-  <si>
-    <t>So What</t>
   </si>
   <si>
     <t>Na-na-na-na, na-na, na
@@ -2962,9 +3253,6 @@
 Ba-da-da-da, da-da</t>
   </si>
   <si>
-    <t>Hotel Room Service</t>
-  </si>
-  <si>
     <t>DJ Tim Johnson, I want everybody to stop what they're doin' (Mr. 305)
 Now if you know you're with somebodyYou're gonna take the hotel room tonight, Make some noise (woo)
 Meet me at the hotel room, Meet me at the hotel room
@@ -3012,12 +3300,6 @@
 Mujeres!... ey-oh-ey-oh-ey... Catolina... oye, que bola?
 Mujeres!... ey-oh-ey-oh-ey... Sophia... oye, que bola?
 Mujeres!... ay-oh-ay-oh-ay... Estefany... oye, que bola? Dale...</t>
-  </si>
-  <si>
-    <t>Crack A Bottle</t>
-  </si>
-  <si>
-    <t>Eminem, Dr. Dre &amp; 50 Cent</t>
   </si>
   <si>
     <t>Eeeeeeeaahhh!
@@ -3120,9 +3402,6 @@
 And we're starting this party from dusk.</t>
   </si>
   <si>
-    <t>If I Were A Boy</t>
-  </si>
-  <si>
     <t>If I were a boy, even just for a day
 I'd roll outta bed in the mornin'
 And throw on what I wanted, then goDrink beer with the guys
@@ -3172,12 +3451,6 @@
 'Cause you've taken her for granted
 And everything you have got destroyed
 But you're just a boy</t>
-  </si>
-  <si>
-    <t>Turnin Me On</t>
-  </si>
-  <si>
-    <t>Keri Hilson Featuring Lil Wayne</t>
   </si>
   <si>
     <t>Please don't turn me off
@@ -3258,12 +3531,6 @@
 Recognize a real woman</t>
   </si>
   <si>
-    <t>I Hate This Part</t>
-  </si>
-  <si>
-    <t>The Pussycat Dolls</t>
-  </si>
-  <si>
     <t>We're driving slow through the snow on 5th Avenue
 And right now radio's all that we can hear
 Now we ain't talked since we left, it's so overdueIt's cold outside but between us it's worse in here
@@ -3325,15 +3592,6 @@
 I hate this part right here</t>
   </si>
   <si>
-    <t>Gotta Be Somebody</t>
-  </si>
-  <si>
-    <t>Nickelback</t>
-  </si>
-  <si>
-    <t>Please Don't Leave Me</t>
-  </si>
-  <si>
     <t>I don't know if I can yell any louder
 How many times have I kicked you out of here?
 Or said something insulting?(Da da da da-da)
@@ -3382,9 +3640,6 @@
 But it's always gonna come right back to this
 Please, please, don't leave me
 Baby, please, please, don't leave me</t>
-  </si>
-  <si>
-    <t>Paparazzi</t>
   </si>
   <si>
     <t>We are the crowd
@@ -3448,12 +3703,6 @@
 Baby, you'll be famous
 Chase you down until you love me
 Papa-paparazzi</t>
-  </si>
-  <si>
-    <t>Beautiful</t>
-  </si>
-  <si>
-    <t>Akon Featuring Colby O'Donis &amp; Kardinal Offishall</t>
   </si>
   <si>
     <t>When I see you
@@ -3570,12 +3819,6 @@
 You're so beautiful</t>
   </si>
   <si>
-    <t>Viva La Vida</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
-  </si>
-  <si>
     <t>I used to rule the world
 Seas would rise when I gave the word
 Now in the morning I sleep aloneSweep the streets I used to own
@@ -3619,12 +3862,6 @@
 I know Saint Peter won't call my name
 Never an honest word
 But that was when I ruled the world</t>
-  </si>
-  <si>
-    <t>Right Now (Na Na Na)</t>
-  </si>
-  <si>
-    <t>Akon</t>
   </si>
   <si>
     <t>It's been so long
@@ -3706,12 +3943,6 @@
 We need to link up right now na na</t>
   </si>
   <si>
-    <t>Battlefield</t>
-  </si>
-  <si>
-    <t>Jordin Sparks</t>
-  </si>
-  <si>
     <t>Don't try to explain your mind
 I know what's happening here
 One minute it's loveAnd suddenly it's like a battlefield
@@ -3782,12 +4013,6 @@
 Don't even know what we're fighting for
 I never meant to start a war
 Don't even know what we're fighting for</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Flo Rida Featuring Wynter</t>
   </si>
   <si>
     <t>Da, double dee, double di
@@ -3883,9 +4108,6 @@
 Sugar</t>
   </si>
   <si>
-    <t>Miss Independent</t>
-  </si>
-  <si>
     <t>Yeah yeah, yeah yeah
 Yeah yeah, yeah yeah
 Yeah yeah, yeah yeah yeahOoh it's somethin' about
@@ -3966,12 +4188,6 @@
 That's why I love her</t>
   </si>
   <si>
-    <t>Fireflies</t>
-  </si>
-  <si>
-    <t>Owl City</t>
-  </si>
-  <si>
     <t>You would not believe your eyes
 If ten million fireflies
 Lit up the world as I fell asleep'Cause they'd fill the open air
@@ -4019,12 +4235,6 @@
 That planet Earth turns slowly
 It's hard to say that I'd rather stay awake when I'm asleep
 Because my dreams are bursting at the seams</t>
-  </si>
-  <si>
-    <t>New Divide</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
   </si>
   <si>
     <t>I remembered black skies
@@ -4076,12 +4286,6 @@
 Across this new divide
 Across this new divide
 Across this new divide</t>
-  </si>
-  <si>
-    <t>Empire State Of Mind</t>
-  </si>
-  <si>
-    <t>Jay-Z + Alicia Keys</t>
   </si>
   <si>
     <t>Yeah
@@ -4188,12 +4392,6 @@
 Let's hear it for New York, New York, New York</t>
   </si>
   <si>
-    <t>No Surprise</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
     <t>And I hope...
 And I hope...I've practiced this for hours, gone 'round and 'round
 And now I think that I've got it all down
@@ -4244,12 +4442,6 @@
 The loving look that's left your eyes
 But I know in time we'll find this was no surprise
 And I hope... 5x</t>
-  </si>
-  <si>
-    <t>She Wolf</t>
-  </si>
-  <si>
-    <t>Shakira</t>
   </si>
   <si>
     <t>How you doin' I'm Mr. Mos I'm back
@@ -4342,12 +4534,6 @@
 Anything you want in the world
 Anything you want in the world
 Give it up to me.</t>
-  </si>
-  <si>
-    <t>Break Up</t>
-  </si>
-  <si>
-    <t>Mario Featuring Gucci Mane &amp; Sean Garrett</t>
   </si>
   <si>
     <t>I love you,
@@ -4461,9 +4647,6 @@
 I'm back baby.</t>
   </si>
   <si>
-    <t>Sweet Dreams</t>
-  </si>
-  <si>
     <t>Turn the lights on!
 Every night I rush to my bedWith hopes that maybe I'll get a chance to see you
 When I close my eyes I'm going out of my head
@@ -4512,12 +4695,6 @@
 You can be a sweet dream or a beautiful nightmare
 Either way I don't wanna wake up from you (turn the lights on)
 Either way I don't wanna wake up from you</t>
-  </si>
-  <si>
-    <t>Every Girl</t>
-  </si>
-  <si>
-    <t>Young Money</t>
   </si>
   <si>
     <t>Uh, I like a long-haired, thick redbone
@@ -4611,12 +4788,6 @@
 Young Mula, baby</t>
   </si>
   <si>
-    <t>Fallin' For You</t>
-  </si>
-  <si>
-    <t>Colbie Caillat</t>
-  </si>
-  <si>
     <t>I don't know but
 I think I may be
 Fallin' for youDropping so quickly
@@ -4692,12 +4863,6 @@
 Oh I'm fallin' for you!</t>
   </si>
   <si>
-    <t>Untouched</t>
-  </si>
-  <si>
-    <t>The Veronicas</t>
-  </si>
-  <si>
     <t>I go ooh ooh, you go ah ah
 Lalalala, Alalala
 I can't lie, lie, lie, lie, lie, lieI wanna wanna wanna get get get what I want
@@ -4772,9 +4937,6 @@
 Untouched un</t>
   </si>
   <si>
-    <t>If Today Was Your Last Day</t>
-  </si>
-  <si>
     <t>My best friend gave me the best advice
 He said each day's a gift and not a given right
 Leave no stone unturned, leave your fears behindAnd try to take the path less traveled by
@@ -4820,12 +4982,6 @@
 And would you find that one you're dreaming of
 Swear up and down to God above
 That you'd finally fall in love if today was your last day?</t>
-  </si>
-  <si>
-    <t>Throw It In The Bag</t>
-  </si>
-  <si>
-    <t>Fabolous Featuring The-Dream</t>
   </si>
   <si>
     <t>Fabolous:]
@@ -4903,12 +5059,6 @@
 Just throw it in the bag</t>
   </si>
   <si>
-    <t>Love Drunk</t>
-  </si>
-  <si>
-    <t>Boys Like Girls</t>
-  </si>
-  <si>
     <t>Top down in the summer sun
 The day we met was like a hit-and-run
 And I still taste it on my tongue (taste it on my tongue)The sky was burning up like fireworks
@@ -4949,12 +5099,6 @@
 I'll love you forever but now it's over
 Now it's over (still taste it on my tongue)
 Now it's over</t>
-  </si>
-  <si>
-    <t>I Love College</t>
-  </si>
-  <si>
-    <t>Asher Roth</t>
   </si>
   <si>
     <t>I'm nice right now
@@ -5048,9 +5192,6 @@
 Or can I just stay here for the rest of my life?</t>
   </si>
   <si>
-    <t>If U Seek Amy</t>
-  </si>
-  <si>
     <t>La, la, la, la, la, la, la, la
 La, la, la, la, la, la, la, la
 La, la, la, la, la, la, la, laLa, la, la, la, la, la, la, la
@@ -5115,12 +5256,6 @@
 All of the boys and all of the girls are begging to if you seek Amy</t>
   </si>
   <si>
-    <t>Big Green Tractor</t>
-  </si>
-  <si>
-    <t>Jason Aldean</t>
-  </si>
-  <si>
     <t>She had a shiny little Beemer with the rag top down
 Sittin' in the drive but she wouldn't get out
 The dogs were all barkin' and waggin' aroundAnd I just laughed and said y'all get in
@@ -5159,9 +5294,6 @@
 We can go to town
 We can go another round
 On my big green tractor</t>
-  </si>
-  <si>
-    <t>White Horse</t>
   </si>
   <si>
     <t>Say you're sorry
@@ -5208,12 +5340,6 @@
 Try and catch me now
 Oh, it's too late
 To catch me now</t>
-  </si>
-  <si>
-    <t>Disturbia</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
   </si>
   <si>
     <t>Bum bum be-dum, bum bum be-dum bum (What's wrong with me?)
@@ -5300,12 +5426,6 @@
 Bum bum be-dum, bum bum be-dum bum</t>
   </si>
   <si>
-    <t>21 Guns</t>
-  </si>
-  <si>
-    <t>Green Day</t>
-  </si>
-  <si>
     <t>Do you know what's worth fighting for?
 When it's not worth dying for
 Does it take your breath away?And you feel yourself suffocating
@@ -5345,12 +5465,6 @@
 Lay down your arms, give up the fight
 One, twenty-one guns
 Throw up your arms into the sky, you and I</t>
-  </si>
-  <si>
-    <t>Turn My Swag On</t>
-  </si>
-  <si>
-    <t>Soulja Boy Tell'em</t>
   </si>
   <si>
     <t>Soulja Boy Tellem!
@@ -5417,12 +5531,6 @@
 Yeeeeea I'm gettin money (ooh)</t>
   </si>
   <si>
-    <t>Rockin' That Thang</t>
-  </si>
-  <si>
-    <t>The-Dream</t>
-  </si>
-  <si>
     <t>Girl I'm in love with you baby.
 And I want you to know.
 That I'm hooked on your body.And I'm trying to be your's.
@@ -5487,12 +5595,6 @@
 I swear you gon' make a nigga fall in love, love.</t>
   </si>
   <si>
-    <t>Chicken Fried</t>
-  </si>
-  <si>
-    <t>Zac Brown Band</t>
-  </si>
-  <si>
     <t>You know I like my chicken fried
 A cold beer on a Friday night
 A pair of jeans that fit just rightAnd the radio up
@@ -5545,9 +5647,6 @@
 See the love in my woman's eyes
 Feel the touch of a precious child
 And know a mother's love</t>
-  </si>
-  <si>
-    <t>Diva</t>
   </si>
   <si>
     <t>I'm a a diva (hey)
@@ -5641,12 +5740,6 @@
 (Hey)</t>
   </si>
   <si>
-    <t>Replay</t>
-  </si>
-  <si>
-    <t>Iyaz</t>
-  </si>
-  <si>
     <t>Shawty's like a melody in my head
 That I can't keep out, got me singin' like
 Na na na na everydayIt's like my iPod's stuck on replay
@@ -5727,12 +5820,6 @@
 Replay-ay-ay-ay</t>
   </si>
   <si>
-    <t>Then</t>
-  </si>
-  <si>
-    <t>Brad Paisley</t>
-  </si>
-  <si>
     <t>I remember trying not to stare the night that I first met you
 You had me mesmerized
 And three weeks later, in the front porch lightTaking 45 minutes to kiss goodnight
@@ -5761,18 +5848,6 @@
 We'll look back someday, at this moment that we're in
 And I'll look at you and say, and I thought I loved you then
 And I thought I loved you then</t>
-  </si>
-  <si>
-    <t>Her Diamonds</t>
-  </si>
-  <si>
-    <t>Rob Thomas</t>
-  </si>
-  <si>
-    <t>How Do You Sleep?</t>
-  </si>
-  <si>
-    <t>Jesse McCartney Featuring Ludacris</t>
   </si>
   <si>
     <t>I'm done hating myself for feeling
@@ -5818,9 +5893,6 @@
 All that fear and all that pressure
 I'm hoping that my love will keep you up tonight
 (Tell me how do you)</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>One, Two, Three
@@ -5910,12 +5982,6 @@
 Peter, Paul, and Mary
 Gettin' down with Three P
 Everybody loves... oh</t>
-  </si>
-  <si>
-    <t>Forever</t>
-  </si>
-  <si>
-    <t>Drake Featuring Kanye West, Lil Wayne &amp; Eminem</t>
   </si>
   <si>
     <t>It may not mean nothin' to y'all
@@ -6037,12 +6103,6 @@
 I want this shit forever, man—ever, man—ever, man</t>
   </si>
   <si>
-    <t>One Time</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
     <t>Aye aye aye aye
 Aye aye aye ayeMe, plus you (I'ma tell you one time)
 Me, plus you (I'ma tell you one time)
@@ -6106,12 +6166,6 @@
 One time, one time</t>
   </si>
   <si>
-    <t>I Run To You</t>
-  </si>
-  <si>
-    <t>Lady Antebellum</t>
-  </si>
-  <si>
     <t>I run from hate
 I run from prejudice
 I run from pessimistsBut I run too late
@@ -6157,9 +6211,6 @@
 Run to you</t>
   </si>
   <si>
-    <t>I Do Not Hook Up</t>
-  </si>
-  <si>
     <t>Oh, sweetheart put the bottle down
 You've got too much talent
 I see you through those bloodshot eyesThere's a cure, you've found it
@@ -6193,12 +6244,6 @@
 'Cause the more that you try the harder I'll fight to say
 'Cause the more that you try the harder I'll fight to say goodnight
 Oh, sweetheart put the bottle down 'cause you don't wanna miss out</t>
-  </si>
-  <si>
-    <t>Green Light</t>
-  </si>
-  <si>
-    <t>John Legend Featuring Andre 3000</t>
   </si>
   <si>
     <t>Give me the green light
@@ -6291,12 +6336,6 @@
 I'm ready to go right now</t>
   </si>
   <si>
-    <t>People Are Crazy</t>
-  </si>
-  <si>
-    <t>Billy Currington</t>
-  </si>
-  <si>
     <t>This old man and me
 We're at the bar and we
 We're havin' us some beers andSwappin' I don't cares
@@ -6345,9 +6384,6 @@
 And people are crazy</t>
   </si>
   <si>
-    <t>Whatever It Is</t>
-  </si>
-  <si>
     <t>She got eyes that cuts you like a knife
 And lips that taste like sweet red wine
 And pretty legs go to heaven every timeShe got a gentle way that puts me at ease
@@ -6392,9 +6428,6 @@
 It comes out "I love you," I do
 You got whatever it is
 Oh, you got whatever it is</t>
-  </si>
-  <si>
-    <t>Already Gone</t>
   </si>
   <si>
     <t>Remember all the things we wanted
@@ -6455,12 +6488,6 @@
 I'm already gone, already gone
 There's no moving on
 So I'm already gone</t>
-  </si>
-  <si>
-    <t>Goodbye</t>
-  </si>
-  <si>
-    <t>Kristinia DeBarge</t>
   </si>
   <si>
     <t>Am I supposed to put my life on hold
@@ -6542,12 +6569,6 @@
 Goodbye (Goodbye)</t>
   </si>
   <si>
-    <t>Say Hey (I Love You)</t>
-  </si>
-  <si>
-    <t>Michael Franti &amp; Spearhead Featuring Cherine Anderson</t>
-  </si>
-  <si>
     <t>I say hey, I'll be gone today
 But I'll be back all around the way
 It seems like everywhere I goThe more I see, the less I know
@@ -6621,21 +6642,6 @@
 I love you, I love you, I love you</t>
   </si>
   <si>
-    <t>Pop Champagne</t>
-  </si>
-  <si>
-    <t>Jim Jones &amp; Ron Browz Featuring Juelz Santana</t>
-  </si>
-  <si>
-    <t>Pretty Wings</t>
-  </si>
-  <si>
-    <t>Maxwell</t>
-  </si>
-  <si>
-    <t>Never Say Never</t>
-  </si>
-  <si>
     <t>Some things we don't talk about
 Rather do without and just hold the smile
 Falling in and out of loveAshamed and proud of, together all the while
@@ -6680,16 +6686,271 @@
 Don't let me go
 Don't let me go</t>
   </si>
+  <si>
+    <t>Beyonce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remember those walls I built
+Well, baby, they're tumbling down
+And they didn't even put up a fight
+They didn't even make a sound
+I found a way to let you win
+But I never really had a doubt
+Standing in the light of your halo
+I got my angel now
+It's like I've been awakened
+Every rule I had you break it
+It's the risk that I'm taking
+I ain't never gonna shut you out
+Everywhere I'm looking now
+I'm surrounded by your embrace
+Baby, I can see your halo
+You know you're my saving grace
+You're everything I need and more
+It's written all over your face
+Baby, I can feel your halo
+Pray it won't fade away
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+Hit me like a ray of sun
+Burning through my darkest night
+You're the only one that I want
+Think I'm addicted to your light
+I swore I'd never fall again
+But this don't even feel like falling
+Gravity can't forget
+To pull me back to the ground again
+Feels like I've been awakened
+Every rule I had you break it
+The risk that I'm taking
+I'm never gonna shut you out
+Everywhere I'm looking now
+I'm surrounded by your embrace
+Baby, I can see your halo
+You know you're my saving grace
+You're everything I need and more
+It's written all over your face
+Baby, I can feel your halo
+Pray it won't fade away
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+Halo, halo
+Everywhere I'm looking now
+I'm surrounded by your embrace
+Baby, I can see your halo
+You know you're my saving grace
+You're everything I need and more
+It's written all over your face
+Baby, I can feel your halo
+Pray it won't fade away
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo
+I can feel your halo (halo) halo
+I can see your halo (halo) halo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I went out on the town with a friend last weekend.
+His ex girlfriend's friend was there alone.
+She bought a couple rounds and I got the feeling
+She could really handle alcohol.
+Another one down and headed off the deep end.
+The more we drank, the less that we had on.
+And it turns out she's got everything I want, but all rolled into one.
+She smokes a little home drown, drinks a little Cuervo.
+Still a little down home, there was never a doubt.
+She's got a fast car, hotter then a dance bar.
+Looking like a rockstar, she'll be the talk of the town.
+You know, she's got everything I want, but all rolled into one.
+Gotta get me some.
+God all mighty look at that body.
+It looks like a sticker on a new Ferrari.
+She's a scene from a bay watch rerun.
+Hotter then the barrel on a squeeze machine gun.
+Well, she can get it lower then a Maserati.
+Never seen somebody move that way.
+Everywhere she goes theres an instant party.
+Everybody wants to know her name.
+And it turns out she's got everything I want, but all rolled into one.
+She smokes a little home grown, drinks a little Cuervo.
+Still a little down home, there was never a doubt.
+She's got a fast car, hotter then a dance bar.
+Looking like a rockstar, and she likes to go out and...
+She likes to get her hands up.
+Anything to stand on.
+Anything to dance on.
+She'd be swinging around.
+Under the hot lights, underneath the spot light.
+Even going all night.
+She'll be the talk of the town.
+You know, she's got everything I want, but all rolled into one.
+Gotta get me some.
+God all mighty look at that body.
+It looks like a sticker on a new Ferrari.
+She's a scene from a bay watch rerun.
+Hotter then the barrel on a squeeze machine gun.
+And it turns out she's got everything I want, but all rolled into one.
+She smokes a little home grown, drinks a little Cuervo.
+Still a little down home, there was never a doubt.
+She's got a fast car, hotter then a dance bar.
+Looking like a rockstar, and she likes to go out and...
+She likes to get her hands up.
+Anything to stand on.
+Anything to dance on.
+She'd be swinging around.
+Under the hot lights, underneath the spot light.
+Even going all night.
+She'll be the talk of the town.
+You know, she's got everything I want, but all rolled into one.
+Gotta get me some.
+I gotta get me some.
+Gotta get me some.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh what the hell she says
+I just can't win for losing
+And she lays back down
+Man there's so many times
+I don't know what I'm doin'
+Like I don't know now
+By the light of the moon, she rubs her eyes
+Says it's funny how the night can make you blind
+I can just imagine
+And I don't know what I'm supposed to do
+But if she feels bad then I do too
+So I let her be
+And she says ooh I can't take no more
+Her tears like diamonds on the floor
+And her diamonds bring me down
+Cause I can't help her now
+She's down in it
+She tried her best but now she can't win
+It's hard to see them on the ground
+Her diamonds falling down
+Way down
+She sits down and stares into the distance
+And it takes all night
+And I know I could break her concentration
+But it don't feel right
+By the light of the moon, she rubs her eyes
+Sits down on the bed and starts to cry
+And there's something less about her
+And I don't know what I'm supposed to do
+So I sit down and I cry too
+But don't let her see
+And she says ooh, I can't take no more
+Her tears like diamonds on the floor
+And her diamonds bring me down
+Cause I can't help her now
+She's down in it
+She tried her best but now she can't win
+It's hard to see them on the ground
+Her diamonds falling down
+She shuts out the night
+Tries to close her eyes
+If she can find daylight
+Then she'll be alright, she'll be alright
+Just not tonight
+And she says ooh, I can't take no more
+Her tears like diamonds on the floor
+And her diamonds bring me down
+Cause I can't help her now
+She's down in it
+She tried her best but now she can't win
+It's hard to see them on the ground
+Her diamonds falling
+Ooh, I can't take no more
+Her tears like diamonds on the floor
+But her diamonds bring me down
+Cause I can't help her now
+She's down in it
+She tried her best but now she can't win
+It's hard to see them on the ground
+Her diamonds falling down
+I can't take no more
+Diamonds on the floor
+No more, no more, no more
+Diamonds falling down
+I can't take no more
+Diamonds on the floor
+No more, no more, no more
+Diamonds falling down
+I can't take no more
+Diamonds on the floor
+(No more, no more)
+Her diamonds falling, all her diamonds
+Diamonds falling down
+I can't take these diamonds falling down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxwell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time will bring the real end of our trial
+One day they'll be no remnants
+No trace, no residual feelings within ya
+One day you won't remember me
+Your face will be the reason I smile
+But I will not see why I cannot have forever
+I'll always love ya, I hope you feel the same
+Oh, you played me dirty, your game was so bad
+You toyed with my affliction, had to fill out my prescription
+Found the remedy, I had to set you free
+Away from me to see clearly
+The way that love can be when you are not with me
+I had to leave, I had to live
+I had to leave, I had to live
+If I can't have you let love set you free to fly your pretty wings around
+Pretty wings, your pretty wings
+Your pretty wings, pretty wings around
+I came wrong, you were right
+Transformed your love into like
+Baby believe me, I'm sorry I told you lies
+I turned day into night, sleep till I die a thousand times
+I could have showed you better nights, better times, better days
+I miss you more and more
+If I can't have you let love set you free to fly your pretty wings around
+Pretty wings, your pretty wings
+Your pretty wings, your pretty wings around
+Pretty wings, your pretty wings
+Your pretty wings, your pretty wings around
+Pretty wings, pretty wings
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around
+Pretty wings, your pretty wings around</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6697,8 +6958,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6710,7 +6978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6718,24 +6986,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6777,7 +7071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6809,9 +7103,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6843,6 +7155,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7018,1084 +7348,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>30</v>
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E51">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C54" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C61" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C63" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C64" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" t="s">
+        <v>234</v>
+      </c>
+      <c r="E65">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" t="s">
+        <v>235</v>
+      </c>
+      <c r="E66">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>239</v>
+      </c>
+      <c r="E70">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>73</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>240</v>
+      </c>
+      <c r="E71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E75">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C77" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>249</v>
+      </c>
+      <c r="E80">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C84" t="s">
+        <v>167</v>
+      </c>
+      <c r="D84" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E85">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C88" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" t="s">
+        <v>256</v>
+      </c>
+      <c r="E88">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>92</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" t="s">
+        <v>258</v>
+      </c>
+      <c r="E90">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C91" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" t="s">
+        <v>259</v>
+      </c>
+      <c r="E91">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>94</v>
       </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>261</v>
+      </c>
+      <c r="E93">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>96</v>
       </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" t="s">
+        <v>262</v>
+      </c>
+      <c r="E94">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>98</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C96" t="s">
+        <v>175</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+      <c r="E96">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>99</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C97" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="C98" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>101</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C99" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>102</v>
       </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C100" t="s">
         <v>113</v>
       </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>188</v>
-      </c>
-      <c r="B71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" t="s">
-        <v>195</v>
-      </c>
-      <c r="C73" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>199</v>
-      </c>
-      <c r="B75" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>202</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>204</v>
-      </c>
-      <c r="B77" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>207</v>
-      </c>
-      <c r="B78" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>210</v>
-      </c>
-      <c r="B79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>213</v>
-      </c>
-      <c r="B80" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" t="s">
-        <v>217</v>
-      </c>
-      <c r="C81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>224</v>
-      </c>
-      <c r="B84" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>227</v>
-      </c>
-      <c r="B85" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>229</v>
-      </c>
-      <c r="B86" t="s">
-        <v>230</v>
-      </c>
-      <c r="C86" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" t="s">
-        <v>235</v>
-      </c>
-      <c r="C88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>237</v>
-      </c>
-      <c r="B89" t="s">
-        <v>238</v>
-      </c>
-      <c r="C89" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>240</v>
-      </c>
-      <c r="B90" t="s">
-        <v>241</v>
-      </c>
-      <c r="C90" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>243</v>
-      </c>
-      <c r="B91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="D100" t="s">
+        <v>266</v>
+      </c>
+      <c r="E100">
         <v>245</v>
       </c>
-      <c r="B92" t="s">
-        <v>246</v>
-      </c>
-      <c r="C92" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>248</v>
-      </c>
-      <c r="B93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>251</v>
-      </c>
-      <c r="B94" t="s">
-        <v>217</v>
-      </c>
-      <c r="C94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>253</v>
-      </c>
-      <c r="B95" t="s">
-        <v>64</v>
-      </c>
-      <c r="C95" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>255</v>
-      </c>
-      <c r="B96" t="s">
-        <v>256</v>
-      </c>
-      <c r="C96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>258</v>
-      </c>
-      <c r="B97" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B99" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>265</v>
-      </c>
-      <c r="B100" t="s">
-        <v>35</v>
-      </c>
-      <c r="C100" t="s">
-        <v>266</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>